--- a/pim/src/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/2020-03-29/2_attribute_groups.xlsx
+++ b/pim/src/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/2020-03-29/2_attribute_groups.xlsx
@@ -51,7 +51,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="0" t="inlineStr">
         <is>
           <t>code</t>
@@ -64,16 +64,21 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
+          <t>label-fr_FR</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
           <t>attributes</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>sort_order</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>other</t>
@@ -86,16 +91,21 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
           <t>MD_RECIPIENT_MAPPING_RECIPIENTCOUNTRY,MD_RECIPIENT_MAPPING_BUCKET,MD_SUPPLIER_MASTER_SUPPLIER_COUNTRY</t>
         </is>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="0" t="inlineStr">
         <is>
           <t>erp</t>
@@ -106,18 +116,18 @@
           <t>_ERP</t>
         </is>
       </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>MANU_SHORT,BRAND_NAME,BRAND_OWNER_NAME,BRAND_OWNER_LOCATION,BRAND_OWNER_GLN,MANUFACTURER_LOCATION,MANUFACTURER_GLN,MANUFACTURER_PART_NUM,COUNTRY_OF_ORIGIN,MANUFACTURER_NAME</t>
-        </is>
-      </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
+          <t>MANU_SHORT,BRAND_NAME,BRAND_OWNER_NAME,BRAND_OWNER_LOCATION,BRAND_OWNER_GLN,MANUFACTURER_LOCATION,MANUFACTURER_GLN,MANUFACTURER_PART_NUM,COUNTRY_OF_ORIGIN,MANUFACTURER_NAME,PACK_SIZE</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="0" t="inlineStr">
         <is>
           <t>PRODUCT</t>
@@ -128,18 +138,18 @@
           <t>_PRODUCT</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>price_reference,PRODUCT_DESCRIPTION,STRENGTH,ACTIVE_INGREDIENT,DOSAGE_FORM,ROUTE_OF_ADMINISTRATION,FREQUENCY</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="0" t="inlineStr">
         <is>
           <t>PRODUCT_CODING</t>
@@ -150,18 +160,18 @@
           <t>_PRODUCT CODING</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>sku,UNSPSC_CODE,GPC_CODE,ATC_CODE,SOURCE_OF_DATA,L3,PARENTID,SOURCEITEMID,GFPVAN_ID</t>
-        </is>
-      </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
+          <t>sku,UNSPSC_CODE,GPC_CODE,ATC_CODE,SOURCE_OF_DATA,L3,PARENTID,SOURCEITEMID,GFPVAN_ID,LMIS_CODE,LMIS_UUID,WHO_COVID19_ITEM_CODE,UN_SUPPLY_MATERIAL_CODE</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="0" t="inlineStr">
         <is>
           <t>ITEM_OPTIONS</t>
@@ -172,18 +182,18 @@
           <t>_ITEM OPTIONS</t>
         </is>
       </c>
-      <c r="C6" s="0" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>ITEM_DESCRIPTION,SHELF_LIFE_DAYS,STORAGE_INSTRUCTIONS,LABELING,MAX_TEMPERATURE_MEASURE,MIN_TEMPERATURE_MEASURE</t>
         </is>
       </c>
-      <c r="D6" s="0" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="0" t="inlineStr">
         <is>
           <t>ITEM_UOM</t>
@@ -194,18 +204,18 @@
           <t>_ITEM UOM</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>TRADE_ITEM_UNIT_DESCRIPTOR,NET_CONTENT,NET_CONTENT_UOM,GROSS_WEIGHT_MEASURE,HEIGHT_MEASURE,WIDTH_MEASURE,VOLUME_MEASURE,DEPTH_MEASURE,BASE_UOM,SOURCE_UOM,UOM_QTY_FACTOR,UOM_VALUE_FACTOR</t>
         </is>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="0" t="inlineStr">
         <is>
           <t>GS1_PRODUCT_DESCRIPTION_INFORMATION</t>
@@ -216,18 +226,18 @@
           <t>GS1 PRODUCT DESCRIPTION INFORMATION</t>
         </is>
       </c>
-      <c r="C8" s="0" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>GS1_TRADEITEMDESCRIPTION,GS1_TRADEITEMDESCRIPTION_LANGUAGECODE,GS1_ADDITIONALTRADEITEMDESCRIPTION,GS1_ADDITIONALTRADEITEMDESCRIPTION_LANGUAGECODE,GS1_SIZECODE,GS1_COLOURCODELISTCODE,GS1_COLOURDESCRIPTION,GS1_DESCRIPTIONSHORT,GS1_DESCRIPTIONSHORT_LANGUAGECODE,GS1_SIZECODELISTCODE,GS1_COLOURCODE</t>
         </is>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="0" t="inlineStr">
         <is>
           <t>GS1_UNIT_INDICATORS</t>
@@ -238,18 +248,18 @@
           <t>GS1 UNIT INDICATORS</t>
         </is>
       </c>
-      <c r="C9" s="0" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>GS1_ISTRADEITEMACONSUMERUNIT,GS1_ISTRADEITEMADESPATCHUNIT,GS1_ISTRADEITEMANORDERABLEUNIT,GS1_ISTRADEITEMABASEUNIT,GS1_ISTRADEITEMANINVOICEUNIT,GS1_IISTRADEITEMAVARIABLEUNIT,GS1_NETCONTENT_MEASUREMENTUNITCODE</t>
         </is>
       </c>
-      <c r="D9" s="0" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="0" t="inlineStr">
         <is>
           <t>GS1_DIMENSIONS</t>
@@ -260,18 +270,18 @@
           <t>GS1 DIMENSIONS</t>
         </is>
       </c>
-      <c r="C10" s="0" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>GS1_DIAMETER,GS1_DIAMETER_MEASUREMENTUNITCODE,GS1_DEPTH,GS1_GROSSWEIGHT,GS1_HEIGHT,GS1_NETWEIGHT,GS1_INBOXCUBEDIMENSION,GS1_WIDTH</t>
         </is>
       </c>
-      <c r="D10" s="0" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="0" t="inlineStr">
         <is>
           <t>GS1_ADDITIONAL_TRADE_ITEM_IDENTIFICATION</t>
@@ -282,13 +292,13 @@
           <t>GS1 ADDITIONAL TRADE ITEM IDENTIFICATION</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="0" t="inlineStr">
         <is>
           <t>GS1_WARRANTY_INFORMATION</t>
@@ -299,18 +309,18 @@
           <t>GS1 WARRANTY INFORMATION</t>
         </is>
       </c>
-      <c r="C12" s="0" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>GS1_WARRANTYCONSTRAINT,GS1_WARRANTYEFFECTIVEDATETYPE,GS1_WARRANTYTYPE,GS1_WARRANTYDURATION</t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="0" t="inlineStr">
         <is>
           <t>GS1_PACKAGING_INFORMATION</t>
@@ -321,18 +331,18 @@
           <t>GS1 PACKAGING INFORMATION</t>
         </is>
       </c>
-      <c r="C13" s="0" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>GS1_PACKAGINGTYPECODE,GS1_ISPACKAGINGMARKEDRETURNABLE,GS1_PACKAGINGPACKAGINGWEIGHT,GS1_GS1TRADEITEMIDENTIFICATIONKEYCODE,GS1_GS1TRADEITEMIDENTIFICATIONKEYVALUE,GS1_PACKAGINGMATERIALTYPECODE</t>
         </is>
       </c>
-      <c r="D13" s="0" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="0" t="inlineStr">
         <is>
           <t>GS1_PHARMACEUTICAL_INFORMATION</t>
@@ -343,18 +353,18 @@
           <t>GS1 PHARMACEUTICAL INFORMATION</t>
         </is>
       </c>
-      <c r="C14" s="0" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>GS1_DOSAGERECOMMENDATION_LANGUAGECODE,GS1_CONTOLLEDSUBSTANCECODE,GS1_CONTROLLEDSUBSTANCENAME,GS1_ENUMERATIONVALUE,GS1_ENUMERATIONVALUEDESCRIPTION,GS1_ENUMERATIONVALUEDESCRIPTION_LANGUAGECODE,GS1_EXTERNALAGENCYNAME,GS1_EXTERNALCODELISTNAME,GS1_DOSAGERECOMMENDATION,GS1_DOSAGERESTRICTIONLIMITS,GS1_DOSAGERESTRICTIONLIMITS_LANGUAGECODE,GS1_DOESITEMCONTAINACONTROLLEDSUBSTANCE,GS1_DOSAGEFORMTYPECODEREFERENCE,GS1_CONTROLLEDSUBSTANCESCHEDULECODEREFERENCE,GS1_CONTROLLEDSUBSTANCEAMOUNT</t>
         </is>
       </c>
-      <c r="D14" s="0" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="0" t="inlineStr">
         <is>
           <t>GS1_HIERARCHY</t>
@@ -365,18 +375,18 @@
           <t>GS1 HIERARCHY</t>
         </is>
       </c>
-      <c r="C15" s="0" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>GS1_TOTALQUANTITYOFNEXTLOWERLEVELTRADEITEM,GS1_QUANTITYOFCHILDREN,GS1_QUANTITYOFNEXTLEVELTRADEITEMWITHININNERPACK,GS1_QUANTITYOFNEXTLOWERLEVELTRADEITEM,GS1_NETCONTENT,GS1__GTIN_CHILD_NEXTLOWERLEVELTRADEITEMINFORMATION</t>
         </is>
       </c>
-      <c r="D15" s="0" t="inlineStr">
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="0" t="inlineStr">
         <is>
           <t>GS1_CLASSIFICATIONS</t>
@@ -387,18 +397,18 @@
           <t>GS1 CLASSIFICATIONS</t>
         </is>
       </c>
-      <c r="C16" s="0" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>GS1_ADDITIONALTRADEITEMCLASSIFICATIONSYSTEMCODE,GS1_IMPORTCLASSIFICATIONVALUE,GS1_IMPORTCLASSIFICATIONTYPECODE,GS1_ADDITIONALTRADEITEMCLASSIFICATIONCODEVALUE,GS1_GPCCATEGORYCODE</t>
         </is>
       </c>
-      <c r="D16" s="0" t="inlineStr">
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="0" t="inlineStr">
         <is>
           <t>GS1_INGREDIENT_INFORMATION</t>
@@ -409,18 +419,18 @@
           <t>GS1 INGREDIENT INFORMATION</t>
         </is>
       </c>
-      <c r="C17" s="0" t="inlineStr">
+      <c r="D17" s="0" t="inlineStr">
         <is>
           <t>GS1_NONFOODINGREDIENTNAME,GS1_INGREDIENTSTRENGTH_MEASUREMENTUNITCODE,GS1_INGREDIENTSTRENGTHBASIS_MEASUREMENTUNITCODE,GS1_NONFOODINGREDIENTOFCONCERNCODE,GS1_INGREDIENTSTRENGTH,GS1_INGREDIENTSTRENGTHBASIS,GS1_ISINGREDIENTGENERIC,GS1_ISINGREDIENTACTIVE</t>
         </is>
       </c>
-      <c r="D17" s="0" t="inlineStr">
+      <c r="E17" s="0" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="0" t="inlineStr">
         <is>
           <t>GS1_LINKS_TO_ADDITIONAL_INFORMATION</t>
@@ -431,18 +441,18 @@
           <t>GS1 LINKS TO ADDITIONAL INFORMATION</t>
         </is>
       </c>
-      <c r="C18" s="0" t="inlineStr">
+      <c r="D18" s="0" t="inlineStr">
         <is>
           <t>GS1_UNIFORMRESOURCEIDENTIFIER,GS1_REFERENCEDFILETYPECODE</t>
         </is>
       </c>
-      <c r="D18" s="0" t="inlineStr">
+      <c r="E18" s="0" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="0" t="inlineStr">
         <is>
           <t>GS1_MARKET_AUTHORIZATION</t>
@@ -453,18 +463,18 @@
           <t>GS1 MARKET AUTHORIZATION</t>
         </is>
       </c>
-      <c r="C19" s="0" t="inlineStr">
+      <c r="D19" s="0" t="inlineStr">
         <is>
           <t>GS1_REGULATORYPERMITIDENTIFICATION,GS1_PERMITSTARTDATETIME,GS1_PERMITENDDATETIME,GS1_REGULATIONRESTRICTIONSANDDESCRIPTORS,GS1_REGULATIONRESTRICTIONSANDDESCRIPTORS_LANGUAGECODE,GS1_ADDITIONALTRADEITEMIDENTIFICATIONTYPECODE,GS1_ADDITIONALTRADEITEMIDENTIFICATION,GS1_REGULATORYINFORMATIONREGULATIONTYPECODE</t>
         </is>
       </c>
-      <c r="D19" s="0" t="inlineStr">
+      <c r="E19" s="0" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="0" t="inlineStr">
         <is>
           <t>GS1_GENERAL_ITEM_INFORMATION</t>
@@ -475,18 +485,18 @@
           <t>GS1 GENERAL ITEM INFORMATION</t>
         </is>
       </c>
-      <c r="C20" s="0" t="inlineStr">
+      <c r="D20" s="0" t="inlineStr">
         <is>
           <t>GS1_TRADEITEMUNITDESCRIPTORCODE,GS1_TARGETMARKETCOUNTRYCODE,GS1_BRANDNAME,GS1_STARTAVAILABILITYDATETIME,GS1_DATACARRIERTYPECODE,GS1_PLACEOFPRODUCTACTIVITYCOUNTRYOFORIGINCOUNTRYCODE,GS1_FUNCTIONALNAME,GS1_FUNCTIONALNAME_LANGUAGECODE,GS1_EFFECTIVEDATETIME,GS1_GTIN_FOR_A_GS1_STANDARD_ITEM,GTIN</t>
         </is>
       </c>
-      <c r="D20" s="0" t="inlineStr">
+      <c r="E20" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="0" t="inlineStr">
         <is>
           <t>GS1_CONTACT_ROLE_INFORMATION</t>
@@ -497,18 +507,18 @@
           <t>GS1 CONTACT / ROLE INFORMATION</t>
         </is>
       </c>
-      <c r="C21" s="0" t="inlineStr">
+      <c r="D21" s="0" t="inlineStr">
         <is>
           <t>GS1_BRANDOWNERGLN,GS1_BRANDOWNERPARTYNAME,GS1_INFORMATIONPROVIDEROFTRADEITEMGLN,GS1_INFORMATIONPROVIDEROFTRADEITEMPARTYNAME,GS1_INFORMATIONPROVIDEROFTRADEITEMPARTYADDRESS,GS1_MANUFACTUREROFTRADEITEMGLN,GS1_MANUFACTUREROFTRADEITEMPARTYNAME,GS1_MANUFACTUREROFTRADEITEMPARTYADDRESS</t>
         </is>
       </c>
-      <c r="D21" s="0" t="inlineStr">
+      <c r="E21" s="0" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="0" t="inlineStr">
         <is>
           <t>GS1_PALLET_LOGISTIC_UNITS</t>
@@ -519,18 +529,18 @@
           <t>GS1 PALLET &amp; LOGISTIC UNITS</t>
         </is>
       </c>
-      <c r="C22" s="0" t="inlineStr">
+      <c r="D22" s="0" t="inlineStr">
         <is>
           <t>GS1_QUANTITYOFCOMPLETELAYERSCONTAINEDINATRADEITEM,GS1_QUANTITYOFTRADEITEMSCONTAINEDINACOMPLETELAYER,GS1_QUANTITYOFLAYERSPERPALLET,GS1_QUANTITYOFTRADEITEMSPERPALLETLAYER,GS1_QUANTITYOFTRADEITEMSPERPALLET,GS1_SHIPPINGCONTAINERTYPECODE,GS1_NONGTINLOGISTICSUNITINFORMATIONEGROSSWEIGHT,GS1_NONGTINLOGISTICSUNITINFORMATIONEGROSSWEIGHT_MEASUREMENTUNITCODE,GS1_NONGTINLOGISTICSUNITINFORMATIONHEIGHT,GS1_NONGTINLOGISTICSUNITINFORMATIONHEIGHT_MEASUREMENTUNITCODE,GS1_NONGTINLOGISTICSUNITINFORMATIONDEPTH,GS1_NONGTINLOGISTICSUNITINFORMATIONDEPTHC_MEASUREMENTUNITCODE,GS1_NONGTINLOGISTICSUNITINFORMATIONWIDTH,GS1_NONGTINLOGISTICSUNITINFORMATIONWIDTH_MEASUREMENTUNITCODE,GS1_PACKAGINGPLATFORMTYPECODE,GS1_NONGTINLOGISTICSUNITINFORMATIONDEPTH_MEASUREMENTUNITCODE</t>
         </is>
       </c>
-      <c r="D22" s="0" t="inlineStr">
+      <c r="E22" s="0" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="0" t="inlineStr">
         <is>
           <t>GS1_STORAGE_HANDLING_SHELF_LIFE</t>
@@ -541,18 +551,18 @@
           <t>GS1 STORAGE, HANDLING &amp; SHELF LIFE</t>
         </is>
       </c>
-      <c r="C23" s="0" t="inlineStr">
+      <c r="D23" s="0" t="inlineStr">
         <is>
           <t>GS1_MINIMUMTRADEITEMLIFESPANFROMTIMEOFPRODUCTION,GS1_CONSUMERUSAGEINSTRUCTIONS,GS1_CONSUMERSTORAGEINSTRUCTIONS,GS1_MINIMUMTRADEITEMLIFESPANFROMTIMEOFARRIVAL,GS1_CONSUMERUSAGEINSTRUCTIONS_LANGUAGECODE,GS1_CONSUMERSTORAGEINSTRUCTIONS_LANGUAGECODE,GS1_TEMPERATUREQUALIFIERCODE_STORAGE_HANDLING,GS1_HANDLINGINSTRUCTIONCODEREFERENCE,GS1_MAXIMUMTEMPERATURE,GS1_MINIMUMTEMPERATURE</t>
         </is>
       </c>
-      <c r="D23" s="0" t="inlineStr">
+      <c r="E23" s="0" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="0" t="inlineStr">
         <is>
           <t>GS1_DANGEROUS_HAZARDOUS_GOODS_INFORMATION</t>
@@ -563,18 +573,18 @@
           <t>GS1 DANGEROUS / HAZARDOUS GOODS INFORMATION</t>
         </is>
       </c>
-      <c r="C24" s="0" t="inlineStr">
+      <c r="D24" s="0" t="inlineStr">
         <is>
           <t>GS1_HAZARDOUSWASTEINFORMATIONNONHAZARDOUSWASTEDESCRIPTION,GS1_HAZARDOUSWASTEINFORMATIONNONHAZARDOUSWASTEDESCRIPTION_LANGUAGECODE,GS1_HAZARDOUSWASTEINFORMATIONHAZARDOUSWASTEAGENCY,GS1_HAZARDOUSWASTEINFORMATIONHAZARDOUSWASTECODE,GS1_HAZARDOUSWASTEINFORMATIONHAZARDOUSWASTEDESCRIPTION,GS1_HAZARDOUSWASTEINFORMATIONHAZARDOUSWASTEDESCRIPTION_LANGUAGECODE,GS1_SAFETYDATASHEETINFORMATIONISREGULATEDFORTRANSPORTATION,GS1_ISDANGEROUSSUBSTANCE,GS1_HAZARDOUSWASTEINFORMATIONISUNIVERSALWASTE,GS1_HAZARDOUSWASTEINFORMATIONISACUTELYHAZARDOUSWASTE</t>
         </is>
       </c>
-      <c r="D24" s="0" t="inlineStr">
+      <c r="E24" s="0" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="0" t="inlineStr">
         <is>
           <t>MD_RECIPIENT_MAPPING</t>
@@ -585,18 +595,18 @@
           <t>MD - RECIPIENT MAPPING</t>
         </is>
       </c>
-      <c r="C25" s="0" t="inlineStr">
+      <c r="D25" s="0" t="inlineStr">
         <is>
           <t>MD_RECIPIENT_MAPPING_SOURCEID,MD_RECIPIENT_MAPPING_SOURCERECIPIENTNAME,MD_RECIPIENT_MAPPING_SOURCEORG,MD_RECIPIENT_MAPPING_SOURCE_PROVIDER</t>
         </is>
       </c>
-      <c r="D25" s="0" t="inlineStr">
+      <c r="E25" s="0" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="0" t="inlineStr">
         <is>
           <t>MD_SUPPLIER_MAPPING</t>
@@ -607,18 +617,18 @@
           <t>MD - SUPPLIER MAPPING</t>
         </is>
       </c>
-      <c r="C26" s="0" t="inlineStr">
+      <c r="D26" s="0" t="inlineStr">
         <is>
           <t>MD_SUPPLIER_MAPPING_SOURCE_SUPPLIER_ID,MD_SUPPLIER_MAPPING_GFPVAN_SUPPLIER_ID,MD_SUPPLIER_MAPPING_SUPPLIER_NAME,MD_SUPPLIER_MAPPING_SUPPLIER_SITE,MD_SUPPLIER_MAPPING_SOURCE,MD_SUPPLIER_MAPPING_SOURCEORG</t>
         </is>
       </c>
-      <c r="D26" s="0" t="inlineStr">
+      <c r="E26" s="0" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="0" t="inlineStr">
         <is>
           <t>MD_HUB_MASTER</t>
@@ -629,18 +639,18 @@
           <t>MD - HUB</t>
         </is>
       </c>
-      <c r="C27" s="0" t="inlineStr">
+      <c r="D27" s="0" t="inlineStr">
         <is>
           <t>MD_HUB_COUNTRYISOCODE,MD_HUB_COUNTRY_DESCRIPTION,MD_HUB_HARDCODE_CUSTOMER,MD_HUB_GLOBAL_ENTERPRISE_ID,MD_HUB_BUCKET_DESCRIPTION,MD_HUB_SITE_TYPE,MD_HUB_VMI_INVENTORY_BASE_POLICY,MD_HUB_VMI_SUPPLY_INCLUSION_POLICY,MD_HUB_WORKING_DAYS,MD_HUB_SHIPMENT_DELIVERY_DATE_CHANGE_TOLERANCE_DAYS,MD_HUB_SHIPMENT_RECEIVE_PENDING_TOLERANCE_DAYS,MD_HUB_SHIPMENT_ALERT_WINDOW_DAYS,MD_HUB_MAX_MOS,MD_HUB_MIN_MOS,MD_HUB_DESIRED_MOS,MD_HUB_GEO_REGION,MD_HUB_GEO_SUB_REGION,MD_HUB_GEO_INT_REGION,MD_HUB_BUCKETID</t>
         </is>
       </c>
-      <c r="D27" s="0" t="inlineStr">
+      <c r="E27" s="0" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="0" t="inlineStr">
         <is>
           <t>MD_SUPPLIER_MASTER</t>
@@ -651,18 +661,18 @@
           <t>MD - SUPPLIER MASTER</t>
         </is>
       </c>
-      <c r="C28" s="0" t="inlineStr">
+      <c r="D28" s="0" t="inlineStr">
         <is>
           <t>MD_SUPPLIER_MASTER_SUPPLIERID,MD_SUPPLIER_MASTER_SUPPLIERNAME,MD_SUPPLIER_MASTER_DUNS,MD_SUPPLIER_MASTER_SUPPLIERGS1ID,MD_SUPPLIER_MASTER_SUPPLIER_TAX_NUMBER,MD_SUPPLIER_MASTER_SUPPLIER_ADDRESS_EXTERNAL_ID,MD_SUPPLIER_MASTER_SUPPLIER_ADDRESS_DESCRIPTOR,MD_SUPPLIER_MASTER_SUPPLIER_ADDRESS_1,MD_SUPPLIER_MASTER_SUPPLIER_ADDRESS_2,MD_SUPPLIER_MASTER_SUPPLIER_ADDRESS_3,MD_SUPPLIER_MASTER_SUPPLIER_ADDRESS_4,MD_SUPPLIER_MASTER_SUPPLIER_ADDRESS_5,MD_SUPPLIER_MASTER_SUPPLIER_CITY,MD_SUPPLIER_MASTER_SUPPLIER_COUNTY,MD_SUPPLIER_MASTER_SUPPLIER_STATE,MD_SUPPLIER_MASTER_ADDRESS_COUNTRY,MD_SUPPLIER_MASTER_SUPPLIER_ZIP,MD_SUPPLIER_MASTER_REMIT_TO_ADDRESS_EXTERNAL_ID,MD_SUPPLIER_MASTER_REMIT_TO_ADDRESS_DESCRIPTOR,MD_SUPPLIER_MASTER_REMIT_TO_ADDRESS_1,MD_SUPPLIER_MASTER_REMIT_TO_ADDRESS_2,MD_SUPPLIER_MASTER_REMIT_TO_ADDRESS_3,MD_SUPPLIER_MASTER_REMIT_TO_ADDRESS_4,MD_SUPPLIER_MASTER_REMIT_TO_ADDRESS_5,MD_SUPPLIER_MASTER_REMIT_TO_CITY,MD_SUPPLIER_MASTER_REMIT_TO_COUNTY,MD_SUPPLIER_MASTER_REMIT_TO_STATE,MD_SUPPLIER_MASTER_REMIT_TO_COUNTRY,MD_SUPPLIER_MASTER_REMIT_TO_ZIP,MD_SUPPLIER_MASTER_GLN,MD_SUPPLIER_MASTER_ALIASES,MD_SUPPLIER_MASTER_FLEX_STRING_SUPPLIER_03,MD_SUPPLIER_MASTER_FLEX_STRING_SUPPLIER_04,MD_SUPPLIER_MASTER_FLEX_STRING_SUPPLIER_05,MD_SUPPLIER_MASTER_SUPPLIER_PROMISE_NEEDED,MD_SUPPLIER_MASTER_SUPPLIER_HOLD_FLAG,MD_SUPPLIER_MASTER_SUPPLIER_STATUS,MD_SUPPLIER_MASTER_BPO_REMAINING_QTY_TOL,MD_SUPPLIER_MASTER_SUPPLIER_SITE</t>
         </is>
       </c>
-      <c r="D28" s="0" t="inlineStr">
+      <c r="E28" s="0" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="0" t="inlineStr">
         <is>
           <t>MD_HUB_MASTER_EXTRA</t>
@@ -673,18 +683,18 @@
           <t>MD - HUB - extra attributes</t>
         </is>
       </c>
-      <c r="C29" s="0" t="inlineStr">
+      <c r="D29" s="0" t="inlineStr">
         <is>
           <t>MD_HUB_DUNS,MD_HUB_ENTERPRISE_SUPPLIER_TAX_NUMBER,MD_HUB_ENTERPRISE_ADDRESS_EXTERNAL_ID,MD_HUB_ENTERPRISE_ADDRESS_DESCRIPTOR,MD_HUB_ENTERPRISE_ADDRESS_1,MD_HUB_ENTERPRISE_ADDRESS_2,MD_HUB_ENTERPRISE_ADDRESS_3,MD_HUB_ENTERPRISE_ADDRESS_4,MD_HUB_ENTERPRISE_ADDRESS_5,MD_HUB_ENTERPRISE_CITY,MD_HUB_ENTERPRISE_COUNTY,MD_HUB_ENTERPRISE_STATE,MD_HUB_ENTERPRISE_COUNTRY,MD_HUB_ENTERPRISE_ZIP,MD_HUB_BILL_TO_ADDRESS_EXTERNAL_ID,MD_HUB_BILL_TO_ADDRESS_DESCRIPTOR,MD_HUB_BILL_TO_ADDRESS_1,MD_HUB_BILL_TO_ADDRESS_2,MD_HUB_BILL_TO_ADDRESS_3,MD_HUB_BILL_TO_ADDRESS_4,MD_HUB_BILL_TO_ADDRESS_5,MD_HUB_BILL_TO_CITY,MD_HUB_BILL_TO_COUNTY,MD_HUB_BILL_TO_STATE,MD_HUB_BILL_TO_COUNTRY,MD_HUB_BILL_TO_ZIP,MD_HUB_REMIT_TO_ADDRESS_EXTERNAL_ID,MD_HUB_REMIT_TO_ADDRESS_DESCRIPTOR,MD_HUB_REMIT_TO_ADDRESS_1,MD_HUB_REMIT_TO_ADDRESS_2,MD_HUB_REMIT_TO_ADDRESS_3,MD_HUB_REMIT_TO_ADDRESS_4,MD_HUB_REMIT_TO_ADDRESS_5,MD_HUB_REMIT_TO_CITY,MD_HUB_REMIT_TO_COUNTY,MD_HUB_REMIT_TO_STATE,MD_HUB_REMIT_TO_COUNTRY,MD_HUB_REMIT_TO_ZIP,MD_HUB_BPO_INVOICE_BASE,MD_HUB_BPO_SHIPMENT_CLOSING_POLICY,MD_HUB_BPO_SHIPMENT_RECEIPT_REF,MD_HUB_AVERAGE_CONSUMPTION_RATE_IN_PAST,MD_HUB_SITE_HIERARCHY_LEVEL_1,MD_HUB_SITE_HIERARCHY_LEVEL_2,MD_HUB_SITE_HIERARCHY_LEVEL_3,MD_HUB_SITE_HIERARCHY_LEVEL_4,MD_HUB_SITE_HIERARCHY_LEVEL_5,MD_HUB_SHIP_TO_ADDRESS_EXTERNAL_ID,MD_HUB_SHIP_TO_ADDRESS_DESCRIPTOR,MD_HUB_SHIP_TO_ADDRESS_1,MD_HUB_SHIP_TO_ADDRESS_2,MD_HUB_SHIP_TO_ADDRESS_3,MD_HUB_SHIP_TO_ADDRESS_4,MD_HUB_SHIP_TO_ADDRESS_5,MD_HUB_SHIP_TO_CITY,MD_HUB_SHIP_TO_COUNTY,MD_HUB_SHIP_TO_STATE,MD_HUB_SHIP_TO_COUNTRY,MD_HUB_SHIP_TO_ZIP,MD_HUB_MONTHS_FOR_AVG_CONSUMPTION,MD_HUB_COMMIT_QUANTITY_TOLERANCE_MIN,MD_HUB_COMMIT_QUANTITY_TOLERANCE_MAX,MD_HUB_BLANKET_ORDER_EXPIRY_TOLERANCE,MD_HUB_DAYS_TO_MOVE_SHIPMENTS_TO_RECEIVED,MD_HUB_MINIMUM_CUSTOMER_ORDER_QUANTITY,MD_HUB_SUPPLIER_SHIPMENT_SIZE,MD_HUB_MIN_TOLERANCE_REQUEST_PROMISE_QUANTITY,MD_HUB_MAX_TOLERANCE_REQUEST_PROMISE_QUANTITY,MD_HUB_MIN_TOLERANCE_REQUEST_SHIPPED_QUANTITY,MD_HUB_MAX_TOLERANCE_REQUEST_SHIPPED_QUANTITY,MD_HUB_MIN_TOLERANCE_REQUEST_RECEIVED_QUANTITY,MD_HUB_MAX_TOLERANCE_REQUEST_RECEIVED_QUANTITY,MD_HUB_MIN_TOLERANCE_REQUEST_INVOICED_QUANTITY,MD_HUB_MAX_TOLERANCE_REQUEST_INVOICED_QUANTITY,MD_HUB_MIN_TOLERANCE_RECEIVED_INVOICED_QUANTITY,MD_HUB_MAX_TOLERANCE_RECEIVED_INVOICED_QUANTITY,MD_HUB_MIN_TOLERANCE_INVOICE_PRICE_MISMATCH,MD_HUB_MAX_TOLERANCE_INVOICE_PRICE_MISMATCH,MD_HUB_LATE_SHIPMENTS_TOLERANCE,MD_HUB_LATE_DELIVERIES_TOLERANCE,MD_HUB_FLEX_STRING_CUSTOMER_04,MD_HUB_FLEX_STRING_CUSTOMER_05,MD_HUB_FLEX_STRING_SUPPLIER_01,MD_HUB_FLEX_STRING_SUPPLIER_02,MD_HUB_FLEX_STRING_SUPPLIER_03,MD_HUB_FLEX_STRING_SUPPLIER_04,MD_HUB_FLEX_STRING_SUPPLIER_05,MD_HUB_FLEX_STRING_CUSTOMER_SITE_01,MD_HUB_FLEX_STRING_CUSTOMER_SITE_02,MD_HUB_FLEX_STRING_CUSTOMER_SITE_03,MD_HUB_FLEX_STRING_CUSTOMER_SITE_04,MD_HUB_FLEX_STRING_CUSTOMER_SITE_05,MD_HUB_FLEX_INTEGER_CUSTOMER_SITE_01,MD_HUB_FLEX_INTEGER_CUSTOMER_SITE_02,MD_HUB_FLEX_INTEGER_CUSTOMER_SITE_03,MD_HUB_FLEX_FLOAT_CUSTOMER_SITE_01,MD_HUB_FLEX_FLOAT_CUSTOMER_SITE_02,MD_HUB_FLEX_FLOAT_CUSTOMER_SITE_03</t>
         </is>
       </c>
-      <c r="D29" s="0" t="inlineStr">
+      <c r="E29" s="0" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="0" t="inlineStr">
         <is>
           <t>MD_COUNTRYBUCKETSETTINGS</t>
@@ -695,14 +705,41 @@
           <t>MD - COUNTRY BUCKET SETTINGS</t>
         </is>
       </c>
-      <c r="C30" s="0" t="inlineStr">
+      <c r="D30" s="0" t="inlineStr">
         <is>
           <t>MD_COUNTRYBUCKETSETTINGS_ALERTENABLED,MD_COUNTRYBUCKETSETTINGS_MINMOS,MD_COUNTRYBUCKETSETTINGS_MAXMOS,MD_COUNTRYBUCKETSETTINGS_DESIREDMOS,MD_COUNTRYBUCKETSETTINGS_FORECASTAMC,MD_COUNTRYBUCKETSETTINGS_RECIPIENTITEMID,MD_COUNTRYBUCKETSETTINGS_RECIPIENTSUPPLYPLANID,MD_COUNTRYBUCKETSETTINGS_RECIPIENTSUPPLYPLANDESC,MD_COUNTRYBUCKETSETTINGS_RECIPIENTINVENTORYID,MD_COUNTRYBUCKETSETTINGS_RECIPIENTPPMRID,MD_COUNTRYBUCKETSETTINGS_L5,MD_COUNTRYBUCKETSETTINGS_L3,MD_COUNTRYBUCKETSETTINGS_PARENTID</t>
         </is>
       </c>
-      <c r="D30" s="0" t="inlineStr">
+      <c r="E30" s="0" t="inlineStr">
         <is>
           <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>_LMIS</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>LMIS</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>FR LMIS</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>PACK_ROUNDING_THRESHOLD,LMIS_ROUND_TO_ZERO</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>29</t>
         </is>
       </c>
     </row>
